--- a/public/37th-IPA-Worker-Registration-Form.xlsx
+++ b/public/37th-IPA-Worker-Registration-Form.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="20" windowWidth="20000" windowHeight="13580"/>
+    <workbookView xWindow="1120" yWindow="2080" windowWidth="20000" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -41,38 +41,17 @@
     <t>………………………………………………..</t>
   </si>
   <si>
-    <t>Raymond</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
-  <si>
-    <t>Taufiq</t>
-  </si>
-  <si>
-    <t>Ridha</t>
-  </si>
-  <si>
-    <t>Luh</t>
-  </si>
-  <si>
-    <t>Ariati</t>
-  </si>
-  <si>
-    <t>Weil</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +83,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -213,8 +196,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,12 +206,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -236,7 +219,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -524,14 +507,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" customWidth="1"/>
@@ -541,364 +525,342 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -906,16 +868,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -923,16 +886,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
